--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -105,7 +105,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -119,6 +125,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -127,45 +134,35 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="20" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="14" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="2" numFmtId="20" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="14" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -175,12 +172,8 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="20" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="14" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="20" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="14" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1337,7 +1330,7 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="C7:C102">
-      <formula1>"上司次郎,田中太郎,山田一郎,田中次郎,部下三郎,下山五郎,田中田中"</formula1>
+      <formula1>"上司次郎,田中太郎,山田一郎,田中次郎,部下三郎,下山五郎,田中田中,大代真白"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="B7:B102">
       <formula1>"〇,　"</formula1>

--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -105,13 +105,7 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -125,7 +119,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -134,35 +127,45 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="20" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="14" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="20" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="14" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -172,8 +175,12 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="20" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="14" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="20" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="14" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1330,7 +1337,7 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="C7:C102">
-      <formula1>"上司次郎,田中太郎,山田一郎,田中次郎,部下三郎,下山五郎,田中田中,大代真白"</formula1>
+      <formula1>"上司次郎,田中太郎,山田一郎,田中次郎,部下三郎,下山五郎,田中田中"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="0" showErrorMessage="0" sqref="B7:B102">
       <formula1>"〇,　"</formula1>

--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -105,7 +105,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -119,6 +125,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -127,45 +134,35 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="20" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="14" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="2" numFmtId="20" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="14" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -175,12 +172,8 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="20" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="14" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="20" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="14" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
